--- a/database warmer.xlsx
+++ b/database warmer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t xml:space="preserve">Database of WARMER </t>
   </si>
@@ -181,27 +181,30 @@
     <t xml:space="preserve">kp</t>
   </si>
   <si>
+    <t xml:space="preserve">spk</t>
+  </si>
+  <si>
     <t xml:space="preserve">hbeli</t>
   </si>
   <si>
+    <t xml:space="preserve">hbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npp</t>
+  </si>
+  <si>
     <t xml:space="preserve">stockawal</t>
   </si>
   <si>
-    <t xml:space="preserve">hbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">npp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stockupdate</t>
-  </si>
-  <si>
     <t xml:space="preserve">quantity</t>
   </si>
   <si>
     <t xml:space="preserve">npk</t>
   </si>
   <si>
+    <t xml:space="preserve">currentstock</t>
+  </si>
+  <si>
     <t xml:space="preserve">pajak</t>
   </si>
   <si>
@@ -266,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">nama kategori barang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spesifikasi khusus</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -578,7 +580,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -662,20 +668,22 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.31983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -969,7 +977,7 @@
       <c r="K12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -997,7 +1005,7 @@
       <c r="K13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1025,11 +1033,11 @@
       <c r="K14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>9</v>
       </c>
@@ -1049,11 +1057,11 @@
       <c r="K15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>10</v>
       </c>
@@ -1073,11 +1081,11 @@
       <c r="K16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>11</v>
       </c>
@@ -1088,15 +1096,17 @@
       <c r="F17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,10 +1123,10 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,10 +1143,10 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,202 +1162,206 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>63</v>
+      <c r="K20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="12"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="12"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="12"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="12"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="12"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="12"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="12"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/database warmer.xlsx
+++ b/database warmer.xlsx
@@ -667,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -885,7 +885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>4</v>
       </c>

--- a/database warmer.xlsx
+++ b/database warmer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="13800" windowHeight="12900" tabRatio="993"/>
+    <workbookView windowWidth="19095" windowHeight="7860" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t xml:space="preserve">Database of WARMER </t>
   </si>
@@ -176,46 +176,46 @@
     <t>daerah</t>
   </si>
   <si>
+    <t>spk</t>
+  </si>
+  <si>
+    <t>last login</t>
+  </si>
+  <si>
+    <t>kodepos</t>
+  </si>
+  <si>
+    <t>hbeli</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>stockawal</t>
+  </si>
+  <si>
+    <t>hbar</t>
+  </si>
+  <si>
+    <t>npp</t>
+  </si>
+  <si>
+    <t>currentstock</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>npk</t>
+  </si>
+  <si>
     <t>kbarang (kbarangid)</t>
   </si>
   <si>
-    <t>last login</t>
-  </si>
-  <si>
-    <t>kodepos</t>
-  </si>
-  <si>
-    <t>mbarang (mbarangid)</t>
-  </si>
-  <si>
-    <t>cp</t>
-  </si>
-  <si>
-    <t>spk</t>
-  </si>
-  <si>
-    <t>hbar</t>
-  </si>
-  <si>
-    <t>npp</t>
-  </si>
-  <si>
-    <t>hbeli</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>npk</t>
-  </si>
-  <si>
-    <t>stockawal</t>
-  </si>
-  <si>
     <t>pajak</t>
   </si>
   <si>
-    <t>currentstock</t>
+    <t>mbarang(mbarangid)</t>
   </si>
   <si>
     <t>tharga</t>
@@ -230,16 +230,10 @@
     <t>Penjelasan</t>
   </si>
   <si>
-    <t>toko</t>
-  </si>
-  <si>
     <t>singkatan</t>
   </si>
   <si>
     <t>penjelasan</t>
-  </si>
-  <si>
-    <t>suplier</t>
   </si>
   <si>
     <t>retype password</t>
@@ -323,22 +317,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +332,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -358,17 +360,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,22 +386,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,16 +405,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,46 +466,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,37 +488,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
+        <fgColor theme="7" tint="0.4"/>
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,158 +684,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -902,6 +902,36 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="medium">
@@ -957,6 +987,74 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -971,218 +1069,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,19 +1282,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1386,6 +1437,64 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1386205</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Merge 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4321810" y="3733800"/>
+          <a:ext cx="1325245" cy="806450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1647,717 +1756,752 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:L40"/>
+  <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.31666666666667"/>
-    <col min="2" max="2" width="8.575"/>
-    <col min="3" max="3" width="9.20833333333333"/>
-    <col min="4" max="4" width="10.8166666666667"/>
-    <col min="5" max="6" width="10.5"/>
-    <col min="7" max="7" width="20.1416666666667"/>
-    <col min="8" max="8" width="13.3916666666667"/>
-    <col min="9" max="9" width="10.5"/>
-    <col min="10" max="10" width="10.175"/>
-    <col min="11" max="11" width="10.8166666666667"/>
-    <col min="12" max="12" width="11.25"/>
-    <col min="13" max="1025" width="8.575"/>
+    <col min="1" max="1" width="6.31666666666667" style="1"/>
+    <col min="2" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="9.20833333333333" style="1"/>
+    <col min="4" max="4" width="10.8166666666667" style="1"/>
+    <col min="5" max="6" width="10.5" style="1"/>
+    <col min="7" max="7" width="20.1416666666667" style="1"/>
+    <col min="8" max="8" width="13.3916666666667" style="1"/>
+    <col min="9" max="9" width="10.5" style="1"/>
+    <col min="10" max="10" width="10.175" style="1"/>
+    <col min="11" max="11" width="10.8166666666667" style="1"/>
+    <col min="12" max="12" width="11.25" style="1"/>
+    <col min="13" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" ht="14.25" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7" t="s">
+      <c r="I11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>13</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:12">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>14</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="26" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:12">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>15</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="27"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="33"/>
     </row>
     <row r="22" ht="14.25"/>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="G23" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:4">
+      <c r="A24" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:9">
-      <c r="A24" s="11" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="D26" s="17"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:14">
+      <c r="A27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I24" t="s">
+      <c r="D27" s="19"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="G28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="G29" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="G30" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="G31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="G32" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="G33" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="G34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="G35" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="17" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18" t="s">
+      <c r="D36" s="19"/>
+      <c r="G36" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18" t="s">
+      <c r="D37" s="19"/>
+      <c r="G37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="17" t="s">
+      <c r="D38" s="19"/>
+      <c r="G38" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18" t="s">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="18"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="17" t="s">
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:4">
+      <c r="A40" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="18"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:4">
-      <c r="A40" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -2400,8 +2544,9 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/database warmer.xlsx
+++ b/database warmer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7860" tabRatio="993"/>
+    <workbookView windowWidth="11295" windowHeight="12900" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t xml:space="preserve">Database of WARMER </t>
   </si>
@@ -242,22 +242,10 @@
     <t>nama perusahaan</t>
   </si>
   <si>
-    <t>nama customers</t>
-  </si>
-  <si>
-    <t>kp</t>
-  </si>
-  <si>
-    <t>kode pos</t>
-  </si>
-  <si>
-    <t>no phone pertama</t>
-  </si>
-  <si>
-    <t>no phone kedua</t>
-  </si>
-  <si>
     <t>kode barang</t>
+  </si>
+  <si>
+    <t>Table Get Data</t>
   </si>
   <si>
     <t>nama barang</t>
@@ -1209,7 +1197,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,6 +1258,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,12 +1282,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,9 +1313,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1444,15 +1444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>118745</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1386205</xdr:colOff>
+      <xdr:colOff>1443990</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1461,8 +1461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4321810" y="3733800"/>
-          <a:ext cx="1325245" cy="806450"/>
+          <a:off x="4379595" y="3733800"/>
+          <a:ext cx="1325245" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -1756,10 +1756,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:N40"/>
+  <dimension ref="A2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:J29"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1776,7 +1776,7 @@
     <col min="11" max="11" width="10.8166666666667" style="1"/>
     <col min="12" max="12" width="11.25" style="1"/>
     <col min="13" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1026" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -1861,7 +1861,7 @@
       <c r="K6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="34" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1878,28 +1878,28 @@
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="25" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -2032,7 +2032,7 @@
       <c r="H11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="36" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="9"/>
@@ -2188,7 +2188,7 @@
       <c r="F17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="26" t="s">
         <v>64</v>
       </c>
       <c r="H17" s="9"/>
@@ -2210,7 +2210,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="26" t="s">
         <v>66</v>
       </c>
       <c r="H18" s="9"/>
@@ -2256,7 +2256,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="37" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="19" t="s">
@@ -2277,7 +2277,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="33"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" ht="14.25"/>
     <row r="23" spans="1:4">
@@ -2317,7 +2317,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" ht="14.25" spans="1:14">
       <c r="A27" s="18" t="s">
@@ -2328,183 +2328,177 @@
         <v>74</v>
       </c>
       <c r="D27" s="19"/>
+      <c r="G27" s="27"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" ht="14.25" spans="1:14">
       <c r="A28" s="18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="G28" s="26" t="s">
-        <v>36</v>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="18" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="19"/>
-      <c r="G29" s="27" t="s">
-        <v>44</v>
+      <c r="G29" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="18" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="G30" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="N30" s="34"/>
+      <c r="G30" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="18" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="G31" s="27" t="s">
-        <v>28</v>
+      <c r="G31" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="18" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="G32" s="27" t="s">
-        <v>46</v>
+      <c r="G32" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="19"/>
-      <c r="G33" s="27" t="s">
-        <v>64</v>
+      <c r="G33" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:7">
       <c r="A34" s="18" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="G34" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="G35" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="G34" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="G35" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="18" t="s">
-        <v>11</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="19"/>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="G37" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="G38" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="G37" s="27" t="s">
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="G38" s="28" t="s">
+    </row>
+    <row r="43" ht="14.25" spans="7:7">
+      <c r="G43" s="33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:4">
-      <c r="A40" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="30">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A5:L5"/>
@@ -2531,18 +2525,10 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/database warmer.xlsx
+++ b/database warmer.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\warmer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="11295" windowHeight="12900" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="12900" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
   <si>
     <t xml:space="preserve">Database of WARMER </t>
   </si>
@@ -278,14 +282,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -304,164 +302,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,204 +318,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -959,278 +615,127 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,133 +745,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1436,33 +819,41 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>118745</xdr:colOff>
+      <xdr:colOff>179705</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1443990</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Flowchart: Merge 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4379595" y="3733800"/>
-          <a:ext cx="1325245" cy="876300"/>
+          <a:off x="4004945" y="3899535"/>
+          <a:ext cx="1256665" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -1486,6 +877,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -1502,7 +894,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1754,746 +1146,744 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:N43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:XFC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.31666666666667" style="1"/>
-    <col min="2" max="2" width="8.575" style="1"/>
-    <col min="3" max="3" width="9.20833333333333" style="1"/>
-    <col min="4" max="4" width="10.8166666666667" style="1"/>
-    <col min="5" max="6" width="10.5" style="1"/>
-    <col min="7" max="7" width="20.1416666666667" style="1"/>
-    <col min="8" max="8" width="13.3916666666667" style="1"/>
-    <col min="9" max="9" width="10.5" style="1"/>
-    <col min="10" max="10" width="10.175" style="1"/>
-    <col min="11" max="11" width="10.8166666666667" style="1"/>
-    <col min="12" max="12" width="11.25" style="1"/>
-    <col min="13" max="1025" width="8.575" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1"/>
+    <col min="2" max="2" width="8.5703125" style="1"/>
+    <col min="3" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="6" width="10.42578125" style="1"/>
+    <col min="7" max="7" width="20.140625" style="1"/>
+    <col min="8" max="8" width="13.42578125" style="1"/>
+    <col min="9" max="9" width="10.42578125" style="1"/>
+    <col min="10" max="10" width="10.28515625" style="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.5703125" style="1"/>
     <col min="1026" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:12">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8" t="s">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="8" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="7">
+    <row r="17" spans="1:12 16383:16383">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="8" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="7">
+    <row r="18" spans="1:12 16383:16383">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="26" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="7">
+    <row r="19" spans="1:12 16383:16383">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="8" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:12">
-      <c r="A20" s="7">
+    <row r="20" spans="1:12 16383:16383">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="37" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:12">
-      <c r="A21" s="7">
+    <row r="21" spans="1:12 16383:16383">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="38"/>
-    </row>
-    <row r="22" ht="14.25"/>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="28"/>
+    </row>
+    <row r="23" spans="1:12 16383:16383">
+      <c r="A23" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="12" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24" spans="1:12 16383:16383">
+      <c r="A24" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="14" t="s">
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" spans="1:12 16383:16383">
+      <c r="A25" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="16" t="s">
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:12 16383:16383">
+      <c r="A26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:14">
-      <c r="A27" s="18" t="s">
+      <c r="D26" s="36"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:12 16383:16383">
+      <c r="A27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="G27" s="27"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:14">
-      <c r="A28" s="18" t="s">
+      <c r="D27" s="30"/>
+      <c r="G27" s="17"/>
+      <c r="XFC27"/>
+    </row>
+    <row r="28" spans="1:12 16383:16383">
+      <c r="A28" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="30"/>
       <c r="G28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="18" t="s">
+      <c r="XFC28"/>
+    </row>
+    <row r="29" spans="1:12 16383:16383">
+      <c r="A29" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="G29" s="28" t="s">
+      <c r="D29" s="30"/>
+      <c r="G29" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="18" t="s">
+      <c r="XFC29"/>
+    </row>
+    <row r="30" spans="1:12 16383:16383">
+      <c r="A30" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="G30" s="29" t="s">
+      <c r="D30" s="30"/>
+      <c r="G30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="18" t="s">
+      <c r="XFC30"/>
+    </row>
+    <row r="31" spans="1:12 16383:16383">
+      <c r="A31" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="G31" s="29" t="s">
+      <c r="D31" s="30"/>
+      <c r="G31" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="18" t="s">
+      <c r="XFC31"/>
+    </row>
+    <row r="32" spans="1:12 16383:16383">
+      <c r="A32" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="G32" s="29" t="s">
+      <c r="D32" s="30"/>
+      <c r="G32" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="18" t="s">
+      <c r="XFC32"/>
+    </row>
+    <row r="33" spans="1:7 16383:16383">
+      <c r="A33" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="G33" s="30" t="s">
+      <c r="D33" s="30"/>
+      <c r="G33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="18" t="s">
+      <c r="XFC33"/>
+    </row>
+    <row r="34" spans="1:7 16383:16383">
+      <c r="A34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="G34" s="29" t="s">
+      <c r="D34" s="30"/>
+      <c r="G34" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="G35" s="29" t="s">
+    <row r="35" spans="1:7 16383:16383">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="G35" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:7 16383:16383">
+      <c r="A36" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="G36" s="31" t="s">
+      <c r="D36" s="30"/>
+      <c r="G36" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="G37" s="32" t="s">
+    <row r="37" spans="1:7 16383:16383">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="G37" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:7 16383:16383">
+      <c r="A38" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="G38" s="31" t="s">
+      <c r="D38" s="32"/>
+      <c r="G38" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="7:7">
-      <c r="G39" s="32" t="s">
+    <row r="39" spans="1:7 16383:16383">
+      <c r="G39" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="7:7">
-      <c r="G40" s="29" t="s">
+    <row r="40" spans="1:7 16383:16383">
+      <c r="G40" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="7:7">
-      <c r="G41" s="29" t="s">
+    <row r="41" spans="1:7 16383:16383">
+      <c r="G41" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="7:7">
-      <c r="G42" s="29" t="s">
+    <row r="42" spans="1:7 16383:16383">
+      <c r="G42" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="7:7">
-      <c r="G43" s="33" t="s">
+    <row r="43" spans="1:7 16383:16383">
+      <c r="G43" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2530,9 +1920,8 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>